--- a/results/mp/logistic/corona/confidence/210/masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,85 +40,97 @@
     <t>name</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>infected</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
+    <t>stress</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>hell</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>hell</t>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>cancelled</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>falling</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>problem</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>saudi</t>
   </si>
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>selfish</t>
@@ -127,36 +139,24 @@
     <t>lower</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -169,6 +169,9 @@
     <t>of</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -178,15 +181,15 @@
     <t>a</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -199,132 +202,135 @@
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>free</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>god</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>god</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>dear</t>
+    <t>care</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
@@ -334,43 +340,52 @@
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
     <t>shop</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
     <t>for</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -728,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,10 +751,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -818,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -847,13 +862,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -865,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K4">
         <v>0.9230769230769231</v>
@@ -897,13 +912,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.8184931506849316</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -915,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K5">
         <v>0.9152542372881356</v>
@@ -947,13 +962,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8275862068965517</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -965,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -989,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -997,13 +1012,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8235294117647058</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1015,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K7">
-        <v>0.8916666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1039,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1047,13 +1062,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8082191780821918</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1065,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1089,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1097,13 +1112,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8055555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1115,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K9">
-        <v>0.8666666666666667</v>
+        <v>0.8246073298429319</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>315</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>316</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1136,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1147,13 +1162,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7631578947368421</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1165,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K10">
-        <v>0.8660714285714286</v>
+        <v>0.8125</v>
       </c>
       <c r="L10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1189,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1197,13 +1212,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7368421052631579</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1215,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11">
-        <v>0.825065274151436</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1239,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1268,16 +1283,16 @@
         <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K12">
-        <v>0.8113207547169812</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L12">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1289,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1297,13 +1312,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.72</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1315,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1339,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1347,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6923076923076923</v>
+        <v>0.68</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1368,16 +1383,16 @@
         <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14">
-        <v>0.7926829268292683</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1389,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1397,13 +1412,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6666666666666666</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1415,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K15">
         <v>0.7872340425531915</v>
@@ -1447,13 +1462,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6521739130434783</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1465,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K16">
-        <v>0.78125</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1489,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1497,7 +1512,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6521739130434783</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -1515,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1539,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1547,13 +1562,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6440677966101694</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1565,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1589,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1597,13 +1612,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5769230769230769</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1615,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K19">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1639,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1647,13 +1662,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5686274509803921</v>
+        <v>0.5251937984496124</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>271</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>271</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1665,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K20">
-        <v>0.7746478873239436</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L20">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="M20">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1689,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1697,13 +1712,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5652173913043478</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1715,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1739,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1747,13 +1762,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5608465608465608</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C22">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1765,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K22">
-        <v>0.7435897435897436</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1789,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1797,13 +1812,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5251937984496124</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>271</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>271</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1815,19 +1830,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K23">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1839,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1847,13 +1862,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5033557046979866</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C24">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1865,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K24">
-        <v>0.7272727272727273</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1889,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1918,16 +1933,16 @@
         <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K25">
-        <v>0.7222222222222222</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1939,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1947,13 +1962,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4666666666666667</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1965,19 +1980,19 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>79</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L26">
         <v>16</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K26">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L26">
-        <v>25</v>
-      </c>
       <c r="M26">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1989,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1997,13 +2012,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4516129032258064</v>
+        <v>0.44</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2015,19 +2030,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K27">
-        <v>0.6984126984126984</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L27">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M27">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2039,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2047,13 +2062,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4516129032258064</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2065,19 +2080,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K28">
-        <v>0.6976744186046512</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2089,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2097,13 +2112,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4358974358974359</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2115,19 +2130,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K29">
-        <v>0.6842105263157895</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L29">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2139,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2147,13 +2162,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4166666666666667</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2165,19 +2180,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30">
-        <v>0.6818181818181818</v>
+        <v>0.675</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2189,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2197,13 +2212,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3928571428571428</v>
+        <v>0.40625</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2215,19 +2230,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K31">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2239,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2247,13 +2262,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3866666666666667</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2265,19 +2280,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K32">
-        <v>0.675</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2289,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2297,13 +2312,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3846153846153846</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2315,19 +2330,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33">
-        <v>0.6666666666666666</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2339,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2347,13 +2362,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3805555555555555</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C34">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2365,19 +2380,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K34">
-        <v>0.6411764705882353</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L34">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2389,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>122</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2397,13 +2412,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3783783783783784</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2415,19 +2430,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K35">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2439,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2468,16 +2483,16 @@
         <v>36</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36">
-        <v>0.6071428571428571</v>
+        <v>0.6</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2489,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2518,16 +2533,16 @@
         <v>37</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K37">
-        <v>0.6060606060606061</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2539,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2547,13 +2562,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2658730158730159</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C38">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2565,31 +2580,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K38">
-        <v>0.6</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2597,13 +2612,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2597402597402597</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2615,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K39">
-        <v>0.5941422594142259</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L39">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2639,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2647,38 +2662,38 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2375</v>
+        <v>0.2341269841269841</v>
       </c>
       <c r="C40">
+        <v>59</v>
+      </c>
+      <c r="D40">
+        <v>59</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>193</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K40">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="L40">
         <v>19</v>
       </c>
-      <c r="D40">
+      <c r="M40">
         <v>19</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>61</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K40">
-        <v>0.5932203389830508</v>
-      </c>
-      <c r="L40">
-        <v>175</v>
-      </c>
-      <c r="M40">
-        <v>175</v>
-      </c>
       <c r="N40">
         <v>1</v>
       </c>
@@ -2689,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2697,13 +2712,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2111111111111111</v>
+        <v>0.2</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2715,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K41">
-        <v>0.5851063829787234</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L41">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M41">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2739,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2747,13 +2762,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1554959785522788</v>
+        <v>0.160857908847185</v>
       </c>
       <c r="C42">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2765,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K42">
         <v>0.5714285714285714</v>
@@ -2797,13 +2812,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2815,19 +2830,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K43">
-        <v>0.5538461538461539</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2839,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2847,37 +2862,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01478953356086462</v>
+        <v>0.01592718998862343</v>
       </c>
       <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>17</v>
+      </c>
+      <c r="E44">
+        <v>0.18</v>
+      </c>
+      <c r="F44">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>865</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="L44">
         <v>13</v>
       </c>
-      <c r="D44">
-        <v>16</v>
-      </c>
-      <c r="E44">
-        <v>0.19</v>
-      </c>
-      <c r="F44">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>866</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K44">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="L44">
-        <v>38</v>
-      </c>
       <c r="M44">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2889,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2897,37 +2912,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.01094736842105263</v>
+        <v>0.01431578947368421</v>
       </c>
       <c r="C45">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E45">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F45">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2939,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2947,37 +2962,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.009987113402061855</v>
+        <v>0.01120689655172414</v>
       </c>
       <c r="C46">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E46">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F46">
-        <v>0.91</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>3073</v>
+        <v>1147</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2989,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2997,49 +3012,49 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.009808500700607193</v>
+        <v>0.01095360824742268</v>
       </c>
       <c r="C47">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E47">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F47">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>2120</v>
+        <v>3070</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K47">
-        <v>0.4831460674157304</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L47">
+        <v>46</v>
+      </c>
+      <c r="M47">
+        <v>46</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>43</v>
-      </c>
-      <c r="M47">
-        <v>43</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3047,49 +3062,49 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0078125</v>
+        <v>0.0107577174929841</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D48">
+        <v>28</v>
+      </c>
+      <c r="E48">
+        <v>0.18</v>
+      </c>
+      <c r="F48">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>2115</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K48">
+        <v>0.4523809523809524</v>
+      </c>
+      <c r="L48">
+        <v>19</v>
+      </c>
+      <c r="M48">
+        <v>19</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>23</v>
-      </c>
-      <c r="E48">
-        <v>0.22</v>
-      </c>
-      <c r="F48">
-        <v>0.78</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>2286</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K48">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="L48">
-        <v>24</v>
-      </c>
-      <c r="M48">
-        <v>24</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3097,31 +3112,31 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.006031128404669261</v>
+        <v>0.007391304347826087</v>
       </c>
       <c r="C49">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E49">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="F49">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>5109</v>
+        <v>2283</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K49">
-        <v>0.4444444444444444</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L49">
         <v>20</v>
@@ -3139,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3147,37 +3162,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005340143951706525</v>
+        <v>0.005231388329979879</v>
       </c>
       <c r="C50">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E50">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="F50">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>4284</v>
+        <v>4944</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K50">
-        <v>0.3287671232876712</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L50">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3189,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3197,63 +3212,87 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004819277108433735</v>
+        <v>0.00505443234836703</v>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D51">
+        <v>47</v>
+      </c>
+      <c r="E51">
+        <v>0.45</v>
+      </c>
+      <c r="F51">
+        <v>0.55</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>5118</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K51">
+        <v>0.3561643835616438</v>
+      </c>
+      <c r="L51">
+        <v>26</v>
+      </c>
+      <c r="M51">
+        <v>26</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.004873520538407983</v>
+      </c>
+      <c r="C52">
+        <v>21</v>
+      </c>
+      <c r="D52">
         <v>40</v>
       </c>
-      <c r="E51">
-        <v>0.4</v>
-      </c>
-      <c r="F51">
-        <v>0.6</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>4956</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K51">
-        <v>0.288135593220339</v>
-      </c>
-      <c r="L51">
-        <v>17</v>
-      </c>
-      <c r="M51">
-        <v>17</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="E52">
+        <v>0.47</v>
+      </c>
+      <c r="F52">
+        <v>0.53</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>4288</v>
+      </c>
       <c r="J52" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K52">
-        <v>0.282051282051282</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3265,15 +3304,15 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="J53" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K53">
-        <v>0.265625</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L53">
         <v>17</v>
@@ -3291,21 +3330,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="J54" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K54">
-        <v>0.2631578947368421</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L54">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3317,15 +3356,15 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="J55" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K55">
-        <v>0.2295081967213115</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="L55">
         <v>14</v>
@@ -3343,293 +3382,397 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="J56" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K56">
-        <v>0.1401869158878505</v>
+        <v>0.234375</v>
       </c>
       <c r="L56">
         <v>15</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N56">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>92</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="J57" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K57">
-        <v>0.07027027027027027</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>172</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="J58" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K58">
-        <v>0.03174603174603174</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="L58">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="N58">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>1159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="J59" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K59">
-        <v>0.008186397984886649</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N59">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>1575</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="J60" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K60">
-        <v>0.006565449322938038</v>
+        <v>0.03290676416819013</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M60">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N60">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>2421</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K61">
-        <v>0.006386175807663411</v>
+        <v>0.02504173622704508</v>
       </c>
       <c r="L61">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M61">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N61">
-        <v>0.61</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O61">
-        <v>0.39</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>2645</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K62">
-        <v>0.006267627702914447</v>
+        <v>0.01133501259445844</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M62">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N62">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="O62">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>3171</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K63">
-        <v>0.005850396991224405</v>
+        <v>0.01017214397496088</v>
       </c>
       <c r="L63">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N63">
-        <v>0.93</v>
+        <v>0.54</v>
       </c>
       <c r="O63">
-        <v>0.06999999999999995</v>
+        <v>0.46</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>2379</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="K64">
-        <v>0.004878048780487805</v>
+        <v>0.009391435011269721</v>
       </c>
       <c r="L64">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M64">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N64">
-        <v>0.48</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O64">
-        <v>0.52</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>4284</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="K65">
-        <v>0.004869497467861317</v>
+        <v>0.007528230865746549</v>
       </c>
       <c r="L65">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M65">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N65">
-        <v>0.45</v>
+        <v>0.86</v>
       </c>
       <c r="O65">
-        <v>0.55</v>
+        <v>0.14</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>5109</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="K66">
-        <v>0.003218020917135961</v>
+        <v>0.006570841889117043</v>
       </c>
       <c r="L66">
         <v>16</v>
       </c>
       <c r="M66">
+        <v>26</v>
+      </c>
+      <c r="N66">
+        <v>0.62</v>
+      </c>
+      <c r="O66">
+        <v>0.38</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K67">
+        <v>0.005231388329979879</v>
+      </c>
+      <c r="L67">
+        <v>26</v>
+      </c>
+      <c r="M67">
+        <v>52</v>
+      </c>
+      <c r="N67">
+        <v>0.5</v>
+      </c>
+      <c r="O67">
+        <v>0.5</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K68">
+        <v>0.004411423264453216</v>
+      </c>
+      <c r="L68">
+        <v>19</v>
+      </c>
+      <c r="M68">
         <v>40</v>
       </c>
-      <c r="N66">
-        <v>0.4</v>
-      </c>
-      <c r="O66">
-        <v>0.6</v>
-      </c>
-      <c r="P66" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>4956</v>
+      <c r="N68">
+        <v>0.47</v>
+      </c>
+      <c r="O68">
+        <v>0.53</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K69">
+        <v>0.004086398131932283</v>
+      </c>
+      <c r="L69">
+        <v>21</v>
+      </c>
+      <c r="M69">
+        <v>47</v>
+      </c>
+      <c r="N69">
+        <v>0.45</v>
+      </c>
+      <c r="O69">
+        <v>0.55</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K70">
+        <v>0.004071406201064829</v>
+      </c>
+      <c r="L70">
+        <v>13</v>
+      </c>
+      <c r="M70">
+        <v>21</v>
+      </c>
+      <c r="N70">
+        <v>0.62</v>
+      </c>
+      <c r="O70">
+        <v>0.38</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>3180</v>
       </c>
     </row>
   </sheetData>
